--- a/public/model.xlsx
+++ b/public/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionathan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI\Dropbox\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7797262E-BC78-4B2B-B059-CD2085D92DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939B53E-1DF2-4BBD-86EB-007AB1215757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appointment_Import (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -65,12 +65,18 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>Referência</t>
+  </si>
+  <si>
+    <t>Próximo a igreja e supermercado do Zeca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,14 +923,15 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -952,8 +959,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -980,6 +990,9 @@
       </c>
       <c r="I2" t="s">
         <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
